--- a/casting-net/Cast-Net-calculation-2.xlsx
+++ b/casting-net/Cast-Net-calculation-2.xlsx
@@ -98,15 +98,9 @@
     <t>Через это расстояние нужно подвязывать ячейки к грузовому шнуру!</t>
   </si>
   <si>
-    <t>Вначале вяжем столько рядов без добавок:</t>
-  </si>
-  <si>
     <t>Т.е. вяжем начальный "циллиндр" на верхушке полотна</t>
   </si>
   <si>
-    <t>Затем вяжем столько рядов на конус:</t>
-  </si>
-  <si>
     <t>пол-высоты ячейки или высота ряда в "полетном" режиме</t>
   </si>
   <si>
@@ -147,6 +141,12 @@
   </si>
   <si>
     <t>Длину шнура лучше прикидывать по длине полотна, получившегося по факту. См. следующий лист</t>
+  </si>
+  <si>
+    <t>1) Вначале вяжем столько рядов без добавок:</t>
+  </si>
+  <si>
+    <t>2) Затем вяжем столько рядов на конус:</t>
   </si>
 </sst>
 </file>
@@ -508,8 +508,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -526,7 +526,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -598,11 +598,11 @@
         <v>22</v>
       </c>
       <c r="B11" s="4">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="C11" s="2" t="str">
         <f>IF(MOD(B11,B10)&lt;&gt;0,"ОЙ-ОЙ!: Количество ячеек вначале лучше взять кратно количеству клиньев","ОК, Количество ячеек в основании 'клина' "&amp;B11/B10&amp;" шт.")</f>
-        <v>ОК, Количество ячеек в основании 'клина' 1 шт.</v>
+        <v>ОК, Количество ячеек в основании 'клина' 3 шт.</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -648,23 +648,23 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="B18">
         <f>FLOOR(3*B11/B10,1)</f>
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="B19">
         <f>FLOOR(B8*10/(2*B27), 1)-B18</f>
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="C19" s="2" t="str">
         <f>"Каждый "&amp;B9&amp;"-й ряд делаем "&amp;B10&amp;" добавок (см. схему)!!! (вяжем клиньями)"</f>
@@ -693,7 +693,7 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B22" s="3">
         <f>FLOOR((B18+B19)*B7/10, 1)</f>
@@ -710,21 +710,21 @@
       </c>
       <c r="B23" s="3">
         <f>FLOOR(B19/B9,1)</f>
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C23" s="2"/>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B24" s="3">
         <f>B18*B11 + B19*B11 + B10*(B9*FLOOR(B19/B9, 1)*(FLOOR(B19/B9, 1) + 1)/2 + (B19-FLOOR(B19/B9, 1)*B9)*(FLOOR(B19/B9, 1) + 1))</f>
-        <v>22680</v>
+        <v>22788</v>
       </c>
       <c r="C24" s="2" t="str">
         <f>"Примерно! Из этих ячеек "&amp;B23*B10&amp;" штук - 'добавки'"</f>
-        <v>Примерно! Из этих ячеек 408 штук - 'добавки'</v>
+        <v>Примерно! Из этих ячеек 384 штук - 'добавки'</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -761,7 +761,7 @@
         <v>23.593173002861501</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -773,7 +773,7 @@
         <v>18.530034745165683</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -798,22 +798,22 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -906,7 +906,7 @@
         <v>1728.3841141045227</v>
       </c>
       <c r="C17" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -918,7 +918,7 @@
         <v>41.152002716774355</v>
       </c>
       <c r="C18" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -930,31 +930,31 @@
         <v>1.0610329539459689</v>
       </c>
       <c r="C19" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B20" s="6">
         <f>B9*B19/SQRT(B19*B19+1)</f>
         <v>21.831815501685814</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B21" s="6">
         <f>B20/B19</f>
         <v>20.576001358387177</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
